--- a/ExportTest/tpl.xlsx
+++ b/ExportTest/tpl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Library\ExportTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Library\NetExcel\ExportTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -432,24 +433,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -459,17 +442,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,12 +750,12 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
@@ -763,62 +764,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -847,7 +848,7 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
